--- a/EEPROM.xlsx
+++ b/EEPROM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hanium_ict_2023\arduino\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7583166E-A27B-4431-BF88-228F395FB3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E85E8B-AD41-49C0-9C9A-81225D1A5216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{F0A18CA5-CD83-4F6F-A7F3-C6EABA054E62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>address</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>서보1_핀(0인경우 disable)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이틀여부(1=사용자지정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704FCDEA-BA8C-4383-A3AD-AB355BAEA297}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
@@ -614,6 +618,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1">
+        <v>128</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
